--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -24,7 +24,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>4th August 2023</t>
+    <t>10th August 2023</t>
   </si>
 </sst>
 </file>
@@ -833,7 +833,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -24,7 +24,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>10th August 2023</t>
+    <t>14th August 2023</t>
   </si>
 </sst>
 </file>
@@ -834,7 +834,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -24,7 +24,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>14th August 2023</t>
+    <t>24th August 2023</t>
   </si>
 </sst>
 </file>
@@ -834,7 +834,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -24,7 +24,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>24th August 2023</t>
+    <t>25th August 2023</t>
   </si>
 </sst>
 </file>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -24,7 +24,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>25th August 2023</t>
+    <t>28th August 2023</t>
   </si>
 </sst>
 </file>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -24,7 +24,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>28th August 2023</t>
+    <t>6th September 2023</t>
   </si>
 </sst>
 </file>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -24,7 +24,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>6th September 2023</t>
+    <t>14th September 2023</t>
   </si>
 </sst>
 </file>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -24,7 +24,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>14th September 2023</t>
+    <t>26th September 2023</t>
   </si>
 </sst>
 </file>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -24,7 +24,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>26th September 2023</t>
+    <t>12th October 2023</t>
   </si>
 </sst>
 </file>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -24,7 +24,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>12th October 2023</t>
+    <t>13th October 2023</t>
   </si>
 </sst>
 </file>
@@ -834,7 +834,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -24,7 +24,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>13th October 2023</t>
+    <t>20th October 2023</t>
   </si>
 </sst>
 </file>
@@ -834,7 +834,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -24,7 +24,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>20th October 2023</t>
+    <t>22th October 2023</t>
   </si>
 </sst>
 </file>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -24,7 +24,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>22th October 2023</t>
+    <t>9th November 2023</t>
   </si>
 </sst>
 </file>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -24,7 +24,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>9th November 2023</t>
+    <t>11th January 2024</t>
   </si>
 </sst>
 </file>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -24,7 +24,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>11th January 2024</t>
+    <t>19th January 2024</t>
   </si>
 </sst>
 </file>
@@ -834,7 +834,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -24,7 +24,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>19th January 2024</t>
+    <t>1st February 2024</t>
   </si>
 </sst>
 </file>
@@ -834,7 +834,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -24,7 +24,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>1st February 2024</t>
+    <t>11th February 2024</t>
   </si>
 </sst>
 </file>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -24,7 +24,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>11th February 2024</t>
+    <t>19th February 2024</t>
   </si>
 </sst>
 </file>
@@ -834,7 +834,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -24,7 +24,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>19th February 2024</t>
+    <t>21st February 2024</t>
   </si>
 </sst>
 </file>
@@ -834,7 +834,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -24,7 +24,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>21st February 2024</t>
+    <t>26th February 2024</t>
   </si>
 </sst>
 </file>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -24,7 +24,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>26th February 2024</t>
+    <t>27th February 2024</t>
   </si>
 </sst>
 </file>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -24,7 +24,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>27th February 2024</t>
+    <t>1st March 2024</t>
   </si>
 </sst>
 </file>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -24,7 +24,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>1st March 2024</t>
+    <t>5th March 2024</t>
   </si>
 </sst>
 </file>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -24,7 +24,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>5th March 2024</t>
+    <t>10th March 2024</t>
   </si>
 </sst>
 </file>
@@ -834,7 +834,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -24,7 +24,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>10th March 2024</t>
+    <t>21st March 2024</t>
   </si>
 </sst>
 </file>
@@ -834,7 +834,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -24,7 +24,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>21st March 2024</t>
+    <t>26th April 2024</t>
   </si>
 </sst>
 </file>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -24,7 +24,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>26th April 2024</t>
+    <t>14th May 2024</t>
   </si>
 </sst>
 </file>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -24,7 +24,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>14th May 2024</t>
+    <t>21st May 2024</t>
   </si>
 </sst>
 </file>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -24,7 +24,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>21st May 2024</t>
+    <t>23rd May 2024</t>
   </si>
 </sst>
 </file>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -24,7 +24,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>23rd May 2024</t>
+    <t>31st May 2024</t>
   </si>
 </sst>
 </file>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -24,7 +24,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>31st May 2024</t>
+    <t>26th June 2024</t>
   </si>
 </sst>
 </file>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\20_Job\02_Webpage\60_quarto\kasparrufibach\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaspa\Desktop\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078C53A0-878F-49D1-9745-5FB1AA06330A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="11670"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="update" sheetId="1" r:id="rId1"/>
@@ -24,13 +25,13 @@
     <t>a</t>
   </si>
   <si>
-    <t>26th June 2024</t>
+    <t>30th June 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -512,48 +513,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -830,21 +831,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaspa\Desktop\kasparrufibach\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\20_Job\02_Webpage\60_quarto\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078C53A0-878F-49D1-9745-5FB1AA06330A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="update" sheetId="1" r:id="rId1"/>
@@ -25,13 +24,13 @@
     <t>a</t>
   </si>
   <si>
-    <t>30th June 2024</t>
+    <t>9th July 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -513,48 +512,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -831,21 +830,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\20_Job\02_Webpage\60_quarto\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9EC6B6-4173-4B14-A966-90048810AA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="update" sheetId="1" r:id="rId1"/>
@@ -24,13 +25,13 @@
     <t>a</t>
   </si>
   <si>
-    <t>9th July 2024</t>
+    <t>17th July 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -512,48 +513,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -830,14 +831,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\20_Job\02_Webpage\60_quarto\kasparrufibach\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\02_Job\02_Webpage\60_quarto\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9EC6B6-4173-4B14-A966-90048810AA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8C52F4-3FF3-4550-9D28-6BDEC617436E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="update" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>17th July 2024</t>
+    <t>31st July 2024</t>
   </si>
 </sst>
 </file>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\02_Job\02_Webpage\60_quarto\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8C52F4-3FF3-4550-9D28-6BDEC617436E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39866C7A-5FB1-40ED-9D40-2A3A026C7FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>31st July 2024</t>
+    <t>7th August 2024</t>
   </si>
 </sst>
 </file>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\02_Job\02_Webpage\60_quarto\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39866C7A-5FB1-40ED-9D40-2A3A026C7FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3055E264-916D-45C0-9C4A-80F2168402C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>7th August 2024</t>
+    <t>29th August 2024</t>
   </si>
 </sst>
 </file>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\02_Job\02_Webpage\60_quarto\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3055E264-916D-45C0-9C4A-80F2168402C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B9E261-BCEB-4183-A511-2505F368CE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3045" yWindow="765" windowWidth="25755" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="update" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>29th August 2024</t>
+    <t>22nd September 2024</t>
   </si>
 </sst>
 </file>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\02_Job\02_Webpage\60_quarto\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B9E261-BCEB-4183-A511-2505F368CE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D2CFC5-2D3D-47DC-B86A-659117953228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="765" windowWidth="25755" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="update" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>22nd September 2024</t>
+    <t>30th September 2024</t>
   </si>
 </sst>
 </file>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\02_Job\02_Webpage\60_quarto\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D2CFC5-2D3D-47DC-B86A-659117953228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257414E9-B058-48B2-8932-359575F4810D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>30th September 2024</t>
+    <t>11th October 2024</t>
   </si>
 </sst>
 </file>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\02_Job\02_Webpage\60_quarto\kasparrufibach\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257414E9-B058-48B2-8932-359575F4810D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741ADD17-1684-43FB-94C5-CCFF5ACEAFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4940" yWindow="4940" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="update" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>11th October 2024</t>
+    <t>8th November 2024</t>
   </si>
 </sst>
 </file>
@@ -513,48 +513,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -835,17 +835,17 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741ADD17-1684-43FB-94C5-CCFF5ACEAFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A754A93-455A-4175-929D-0496C16C09A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="4940" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="update" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>8th November 2024</t>
+    <t>18th November 2024</t>
   </si>
 </sst>
 </file>
@@ -835,17 +835,17 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A754A93-455A-4175-929D-0496C16C09A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A4E51A-4B44-402B-B011-0217EE847FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2620" yWindow="2620" windowWidth="28800" windowHeight="15410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="update" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>18th November 2024</t>
+    <t>6th December 2024</t>
   </si>
 </sst>
 </file>
@@ -838,14 +838,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A4E51A-4B44-402B-B011-0217EE847FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DD26EB-D5B2-403D-842D-86EE2D01CC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="2620" windowWidth="28800" windowHeight="15410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21450" yWindow="680" windowWidth="15510" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="update" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>6th December 2024</t>
+    <t>6th January 2025</t>
   </si>
 </sst>
 </file>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DD26EB-D5B2-403D-842D-86EE2D01CC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132576FB-3582-48DA-980A-92F6CD186C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21450" yWindow="680" windowWidth="15510" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="update" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>6th January 2025</t>
+    <t>13th January 2025</t>
   </si>
 </sst>
 </file>
@@ -835,7 +835,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132576FB-3582-48DA-980A-92F6CD186C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803272F8-D38F-422E-B706-8FA447608F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>13th January 2025</t>
+    <t>23rd January 2025</t>
   </si>
 </sst>
 </file>
@@ -835,7 +835,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803272F8-D38F-422E-B706-8FA447608F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42031496-527C-456A-8318-2DE9D8F11C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>23rd January 2025</t>
+    <t>30rd January 2025</t>
   </si>
 </sst>
 </file>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42031496-527C-456A-8318-2DE9D8F11C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3307650-6C8A-4DE6-BBCE-D0F1A50A3594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="update" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>30rd January 2025</t>
+    <t>10th February 2025</t>
   </si>
 </sst>
 </file>
@@ -835,17 +835,17 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3307650-6C8A-4DE6-BBCE-D0F1A50A3594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062E4FCA-4323-46AC-B386-F2ADE02A2A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="update" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>10th February 2025</t>
+    <t>9th March 2025</t>
   </si>
 </sst>
 </file>
@@ -835,7 +835,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062E4FCA-4323-46AC-B386-F2ADE02A2A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2144E13-C255-4AF6-9041-F898571ABD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="update" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>9th March 2025</t>
+    <t>17th March 2025</t>
   </si>
 </sst>
 </file>
@@ -838,14 +838,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2144E13-C255-4AF6-9041-F898571ABD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D704432-530F-4F6C-87E1-EDD58AA275E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="update" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>17th March 2025</t>
+    <t>26th March 2025</t>
   </si>
 </sst>
 </file>
@@ -838,14 +838,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D704432-530F-4F6C-87E1-EDD58AA275E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFDB707-7F12-4264-8F62-C61324532151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="update" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>26th March 2025</t>
+    <t>8th April 2025</t>
   </si>
 </sst>
 </file>
@@ -838,14 +838,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFDB707-7F12-4264-8F62-C61324532151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E5A0FF-B6F8-4A83-B753-D61BBBDB4FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="update" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>8th April 2025</t>
+    <t>19th April 2025</t>
   </si>
 </sst>
 </file>
@@ -838,14 +838,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E5A0FF-B6F8-4A83-B753-D61BBBDB4FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D5BA16-FD07-4085-A3ED-8D66A0F634D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="update" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>19th April 2025</t>
+    <t>4th May 2025</t>
   </si>
 </sst>
 </file>
@@ -838,14 +838,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D5BA16-FD07-4085-A3ED-8D66A0F634D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F4CAB1-2CFF-40AA-AB1C-597B3F6BF4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="update" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>4th May 2025</t>
+    <t>7th May 2025</t>
   </si>
 </sst>
 </file>
@@ -838,14 +838,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F4CAB1-2CFF-40AA-AB1C-597B3F6BF4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900EC8BD-FFCD-4DF2-A583-23C2B2E881C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="update" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>7th May 2025</t>
+    <t>28th May 2025</t>
   </si>
 </sst>
 </file>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900EC8BD-FFCD-4DF2-A583-23C2B2E881C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72606523-7459-4032-BE76-A59190C62208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="update" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>28th May 2025</t>
+    <t>13th June 2025</t>
   </si>
 </sst>
 </file>
@@ -838,14 +838,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72606523-7459-4032-BE76-A59190C62208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C3A118-43A2-49F7-B1D3-068A60BCE5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>13th June 2025</t>
+    <t>20th June 2025</t>
   </si>
 </sst>
 </file>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C3A118-43A2-49F7-B1D3-068A60BCE5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F20799-B3E6-411E-8603-C05C68C9E283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>20th June 2025</t>
+    <t>17th July 2025</t>
   </si>
 </sst>
 </file>

--- a/data/update.xlsx
+++ b/data/update.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F20799-B3E6-411E-8603-C05C68C9E283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C424F4-FC21-4C12-8F95-C8FA1B6A50CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9230" yWindow="1310" windowWidth="28800" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="update" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>17th July 2025</t>
+    <t>3rd August 2025</t>
   </si>
 </sst>
 </file>
@@ -835,7 +835,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
